--- a/celery_demo/thepaper_url_table.xlsx
+++ b/celery_demo/thepaper_url_table.xlsx
@@ -687,10 +687,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -724,29 +724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,60 +737,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -835,9 +759,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,7 +845,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,6 +857,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -875,37 +875,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,13 +1031,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,127 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,30 +1097,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1142,27 +1118,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,152 +1146,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1683,908 +1683,1127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.3846153846154" customWidth="1"/>
-    <col min="2" max="2" width="22.1153846153846" customWidth="1"/>
-    <col min="3" max="3" width="24.5096153846154" customWidth="1"/>
+    <col min="2" max="2" width="19.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="22.1153846153846" customWidth="1"/>
+    <col min="4" max="4" width="24.5096153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.thepaper.cn/channel_25950"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.thepaper.cn/channel_25951"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.thepaper.cn/channel_36079"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.thepaper.cn/channel_25952"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.thepaper.cn/channel_25953"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.thepaper.cn/list_25462"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.thepaper.cn/list_25488"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://www.thepaper.cn/list_25489"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://www.thepaper.cn/list_25490"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://www.thepaper.cn/list_25423"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://www.thepaper.cn/list_25426"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://www.thepaper.cn/list_25424"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://www.thepaper.cn/list_25463"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://www.thepaper.cn/list_25491"/>
-    <hyperlink ref="C16" r:id="rId15" display="https://www.thepaper.cn/list_25428"/>
-    <hyperlink ref="C17" r:id="rId16" display="https://www.thepaper.cn/list_68750"/>
-    <hyperlink ref="C18" r:id="rId17" display="https://www.thepaper.cn/list_27604"/>
-    <hyperlink ref="C19" r:id="rId18" display="https://www.thepaper.cn/list_25464"/>
-    <hyperlink ref="C20" r:id="rId19" display="https://www.thepaper.cn/list_25425"/>
-    <hyperlink ref="C21" r:id="rId20" display="https://www.thepaper.cn/list_25429"/>
-    <hyperlink ref="C22" r:id="rId21" display="https://www.thepaper.cn/list_25481"/>
-    <hyperlink ref="C23" r:id="rId22" display="https://www.thepaper.cn/list_25430"/>
-    <hyperlink ref="C24" r:id="rId23" display="https://www.thepaper.cn/list_25678"/>
-    <hyperlink ref="C25" r:id="rId24" display="https://www.thepaper.cn/list_25427"/>
-    <hyperlink ref="C26" r:id="rId25" display="https://www.thepaper.cn/list_25422"/>
-    <hyperlink ref="C27" r:id="rId26" display="https://www.thepaper.cn/list_25487"/>
-    <hyperlink ref="C28" r:id="rId27" display="https://www.thepaper.cn/list_25634"/>
-    <hyperlink ref="C29" r:id="rId28" display="https://www.thepaper.cn/list_25635"/>
-    <hyperlink ref="C30" r:id="rId29" display="https://www.thepaper.cn/list_25600"/>
-    <hyperlink ref="C31" r:id="rId30" display="https://www.thepaper.cn/list_25434"/>
-    <hyperlink ref="C32" r:id="rId31" display="https://www.thepaper.cn/list_25436"/>
-    <hyperlink ref="C33" r:id="rId32" display="https://www.thepaper.cn/list_25433"/>
-    <hyperlink ref="C34" r:id="rId33" display="https://www.thepaper.cn/list_25438"/>
-    <hyperlink ref="C35" r:id="rId34" display="https://www.thepaper.cn/list_25435"/>
-    <hyperlink ref="C36" r:id="rId35" display="https://www.thepaper.cn/list_25437"/>
-    <hyperlink ref="C37" r:id="rId36" display="https://www.thepaper.cn/list_27234"/>
-    <hyperlink ref="C38" r:id="rId37" display="https://www.thepaper.cn/list_25485"/>
-    <hyperlink ref="C39" r:id="rId38" display="https://www.thepaper.cn/list_25432"/>
-    <hyperlink ref="C40" r:id="rId39" display="https://www.thepaper.cn/list_37978"/>
-    <hyperlink ref="C41" r:id="rId40" display="https://www.thepaper.cn/list_35571"/>
-    <hyperlink ref="C42" r:id="rId41" display="https://www.thepaper.cn/list_35570"/>
-    <hyperlink ref="C43" r:id="rId42" display="https://www.thepaper.cn/list_35572"/>
-    <hyperlink ref="C44" r:id="rId43" display="https://www.thepaper.cn/list_47281"/>
-    <hyperlink ref="C45" r:id="rId44" display="https://www.thepaper.cn/list_25444"/>
-    <hyperlink ref="C46" r:id="rId45" display="https://www.thepaper.cn/list_27224"/>
-    <hyperlink ref="C47" r:id="rId46" display="https://www.thepaper.cn/list_26525"/>
-    <hyperlink ref="C48" r:id="rId47" display="https://www.thepaper.cn/list_26878"/>
-    <hyperlink ref="C49" r:id="rId48" display="https://www.thepaper.cn/list_25483"/>
-    <hyperlink ref="C50" r:id="rId49" display="https://www.thepaper.cn/list_25457"/>
-    <hyperlink ref="C51" r:id="rId50" display="https://www.thepaper.cn/list_25574"/>
-    <hyperlink ref="C52" r:id="rId51" display="https://www.thepaper.cn/list_25455"/>
-    <hyperlink ref="C53" r:id="rId52" display="https://www.thepaper.cn/list_26937"/>
-    <hyperlink ref="C54" r:id="rId53" display="https://www.thepaper.cn/list_25450"/>
-    <hyperlink ref="C55" r:id="rId54" display="https://www.thepaper.cn/list_25482"/>
-    <hyperlink ref="C56" r:id="rId55" display="https://www.thepaper.cn/list_25445"/>
-    <hyperlink ref="C57" r:id="rId56" display="https://www.thepaper.cn/list_25456"/>
-    <hyperlink ref="C58" r:id="rId57" display="https://www.thepaper.cn/list_25446"/>
-    <hyperlink ref="C59" r:id="rId58" display="https://www.thepaper.cn/list_25536"/>
-    <hyperlink ref="C60" r:id="rId59" display="https://www.thepaper.cn/list_26506"/>
-    <hyperlink ref="C61" r:id="rId60" display="https://www.thepaper.cn/list_25448"/>
-    <hyperlink ref="C62" r:id="rId61" display="https://www.thepaper.cn/list_26609"/>
-    <hyperlink ref="C63" r:id="rId62" display="https://www.thepaper.cn/list_25942"/>
-    <hyperlink ref="C64" r:id="rId63" display="https://www.thepaper.cn/list_26015"/>
-    <hyperlink ref="C65" r:id="rId64" display="https://www.thepaper.cn/list_25599"/>
-    <hyperlink ref="C66" r:id="rId65" display="https://www.thepaper.cn/list_25842"/>
-    <hyperlink ref="C67" r:id="rId66" display="https://www.thepaper.cn/list_80623"/>
-    <hyperlink ref="C68" r:id="rId67" display="https://www.thepaper.cn/list_26862"/>
-    <hyperlink ref="C69" r:id="rId68" display="https://www.thepaper.cn/list_25769"/>
-    <hyperlink ref="C70" r:id="rId69" display="https://www.thepaper.cn/list_25990"/>
-    <hyperlink ref="C71" r:id="rId70" display="https://www.thepaper.cn/list_26173"/>
-    <hyperlink ref="C72" r:id="rId71" display="https://www.thepaper.cn/list_26202"/>
-    <hyperlink ref="C73" r:id="rId72" display="https://www.thepaper.cn/list_26404"/>
-    <hyperlink ref="C74" r:id="rId73" display="https://www.thepaper.cn/list_26490"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.thepaper.cn/channel_25950"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.thepaper.cn/channel_25951"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.thepaper.cn/channel_36079"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.thepaper.cn/channel_25952"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.thepaper.cn/channel_25953"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.thepaper.cn/list_25462"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.thepaper.cn/list_25488"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://www.thepaper.cn/list_25489"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://www.thepaper.cn/list_25490"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://www.thepaper.cn/list_25423"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://www.thepaper.cn/list_25426"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://www.thepaper.cn/list_25424"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://www.thepaper.cn/list_25463"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://www.thepaper.cn/list_25491"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www.thepaper.cn/list_25428"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://www.thepaper.cn/list_68750"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://www.thepaper.cn/list_27604"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://www.thepaper.cn/list_25464"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://www.thepaper.cn/list_25425"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://www.thepaper.cn/list_25429"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://www.thepaper.cn/list_25481"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://www.thepaper.cn/list_25430"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://www.thepaper.cn/list_25678"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://www.thepaper.cn/list_25427"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://www.thepaper.cn/list_25422"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://www.thepaper.cn/list_25487"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://www.thepaper.cn/list_25634"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://www.thepaper.cn/list_25635"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://www.thepaper.cn/list_25600"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://www.thepaper.cn/list_25434"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://www.thepaper.cn/list_25436"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://www.thepaper.cn/list_25433"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://www.thepaper.cn/list_25438"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://www.thepaper.cn/list_25435"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://www.thepaper.cn/list_25437"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://www.thepaper.cn/list_27234"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://www.thepaper.cn/list_25485"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://www.thepaper.cn/list_25432"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://www.thepaper.cn/list_37978"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://www.thepaper.cn/list_35571"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://www.thepaper.cn/list_35570"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://www.thepaper.cn/list_35572"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://www.thepaper.cn/list_47281"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://www.thepaper.cn/list_25444"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://www.thepaper.cn/list_27224"/>
+    <hyperlink ref="D47" r:id="rId46" display="https://www.thepaper.cn/list_26525"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://www.thepaper.cn/list_26878"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://www.thepaper.cn/list_25483"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://www.thepaper.cn/list_25457"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://www.thepaper.cn/list_25574"/>
+    <hyperlink ref="D52" r:id="rId51" display="https://www.thepaper.cn/list_25455"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://www.thepaper.cn/list_26937"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://www.thepaper.cn/list_25450"/>
+    <hyperlink ref="D55" r:id="rId54" display="https://www.thepaper.cn/list_25482"/>
+    <hyperlink ref="D56" r:id="rId55" display="https://www.thepaper.cn/list_25445"/>
+    <hyperlink ref="D57" r:id="rId56" display="https://www.thepaper.cn/list_25456"/>
+    <hyperlink ref="D58" r:id="rId57" display="https://www.thepaper.cn/list_25446"/>
+    <hyperlink ref="D59" r:id="rId58" display="https://www.thepaper.cn/list_25536"/>
+    <hyperlink ref="D60" r:id="rId59" display="https://www.thepaper.cn/list_26506"/>
+    <hyperlink ref="D61" r:id="rId60" display="https://www.thepaper.cn/list_25448"/>
+    <hyperlink ref="D62" r:id="rId61" display="https://www.thepaper.cn/list_26609"/>
+    <hyperlink ref="D63" r:id="rId62" display="https://www.thepaper.cn/list_25942"/>
+    <hyperlink ref="D64" r:id="rId63" display="https://www.thepaper.cn/list_26015"/>
+    <hyperlink ref="D65" r:id="rId64" display="https://www.thepaper.cn/list_25599"/>
+    <hyperlink ref="D66" r:id="rId65" display="https://www.thepaper.cn/list_25842"/>
+    <hyperlink ref="D67" r:id="rId66" display="https://www.thepaper.cn/list_80623"/>
+    <hyperlink ref="D68" r:id="rId67" display="https://www.thepaper.cn/list_26862"/>
+    <hyperlink ref="D69" r:id="rId68" display="https://www.thepaper.cn/list_25769"/>
+    <hyperlink ref="D70" r:id="rId69" display="https://www.thepaper.cn/list_25990"/>
+    <hyperlink ref="D71" r:id="rId70" display="https://www.thepaper.cn/list_26173"/>
+    <hyperlink ref="D72" r:id="rId71" display="https://www.thepaper.cn/list_26202"/>
+    <hyperlink ref="D73" r:id="rId72" display="https://www.thepaper.cn/list_26404"/>
+    <hyperlink ref="D74" r:id="rId73" display="https://www.thepaper.cn/list_26490"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
